--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E624F-BE9C-485A-87CD-0308784D3ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E725B0-1BEB-4C91-91B5-1E95472C38DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Database</t>
   </si>
@@ -366,6 +366,23 @@
 		Email = Email
     WHERE Id = u_Id;
 END</t>
+  </si>
+  <si>
+    <t>CREATE DEFINER=`root`@`localhost` PROCEDURE `GetAllBookedEvents`()
+BEGIN
+	SELECT 
+	bookevent.Id, signup.Username, signup.Email, addevent.Category, addevent.Location, addevent.Amount, 
+	addevent.Contact, addevent.ImagePath, bookevent.Deposit, bookevent.Balance, bookevent.Date,
+    bookevent.Time, bookevent.Status
+FROM bookevent
+INNER JOIN addevent 
+	ON bookevent.addevent_id = addevent.Id
+INNER JOIN signup 
+	ON bookevent.signup_id = signup.Id;
+END</t>
+  </si>
+  <si>
+    <t>GetAllBookedEvents</t>
   </si>
 </sst>
 </file>
@@ -686,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C57"/>
+  <dimension ref="B2:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,6 +941,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="59" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E725B0-1BEB-4C91-91B5-1E95472C38DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED9A40-90D7-4F42-9D45-942127B02085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Database</t>
   </si>
@@ -383,6 +383,17 @@
   </si>
   <si>
     <t>GetAllBookedEvents</t>
+  </si>
+  <si>
+    <t>CREATE DEFINER=`root`@`localhost` PROCEDURE `GetId`(
+	IN IEmail varchar(100)
+)
+BEGIN
+	 SELECT Id from SignUp where Email = IEmail;
+END</t>
+  </si>
+  <si>
+    <t>GetId</t>
   </si>
 </sst>
 </file>
@@ -703,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C59"/>
+  <dimension ref="B2:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,6 +960,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="61" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED9A40-90D7-4F42-9D45-942127B02085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4683B82-AB82-4415-8FF2-B6036FDA56F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Database</t>
   </si>
@@ -394,6 +394,36 @@
   </si>
   <si>
     <t>GetId</t>
+  </si>
+  <si>
+    <t>CREATE DEFINER=`root`@`localhost` PROCEDURE `GetbookEventbyId`(in p_id int)
+begin
+	select * from addevent
+	LEFT JOIN bookevent
+	ON bookevent.addevent_Id = addevent.Id
+    where addevent.Id = p_id;
+end</t>
+  </si>
+  <si>
+    <t>CREATE DEFINER=`root`@`localhost` PROCEDURE `InsertbookEvent`(
+	IN a_Deposit varchar(50),
+    IN a_Balance varchar(50),
+	IN a_Date Date,
+	IN a_Time Time,
+	IN a_Status varchar(50),
+	IN a_addEvent INT,
+	IN a_signup INT
+)
+BEGIN
+	INSERT INTO bookevent(Deposit, Balance, Date, Time, Status, addevent_id, signup_id)
+	VALUES(a_Deposit,a_Balance,a_Date,a_Time,a_Status,a_addEvent,a_signup); 
+END</t>
+  </si>
+  <si>
+    <t>InsertbookEvent</t>
+  </si>
+  <si>
+    <t>GetbookEventbyId</t>
   </si>
 </sst>
 </file>
@@ -714,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C61"/>
+  <dimension ref="B2:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,6 +998,22 @@
         <v>58</v>
       </c>
     </row>
+    <row r="63" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4683B82-AB82-4415-8FF2-B6036FDA56F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C605A5-4B00-4AFE-B062-7594CBF315BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -746,17 +746,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.7265625" customWidth="1"/>
-    <col min="3" max="3" width="52.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -764,12 +764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -785,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -793,12 +793,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="261" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="261" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -830,7 +830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -838,7 +838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -846,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -854,7 +854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -862,7 +862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -878,7 +878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -886,7 +886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -894,7 +894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -902,7 +902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>39</v>
       </c>
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -926,7 +926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -934,7 +934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>45</v>
       </c>
@@ -942,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -950,7 +950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>49</v>
       </c>
@@ -958,7 +958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>51</v>
       </c>
@@ -966,7 +966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>54</v>
       </c>
@@ -982,7 +982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" ht="216" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>57</v>
       </c>
@@ -990,7 +990,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>59</v>
       </c>
@@ -998,7 +998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="232" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>62</v>
       </c>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C605A5-4B00-4AFE-B062-7594CBF315BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F9FDA-D703-459D-A66A-888C3947EC8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Database</t>
   </si>
@@ -424,6 +424,43 @@
   </si>
   <si>
     <t>GetbookEventbyId</t>
+  </si>
+  <si>
+    <t>bookevent</t>
+  </si>
+  <si>
+    <t>Id int AI PK 
+Deposit varchar(30) 
+Balance varchar(30) 
+Date date 
+Time time 
+Status varchar(30) 
+addevent_id int fk
+signup_id int fk</t>
+  </si>
+  <si>
+    <t>CREATE DEFINER=`root`@`localhost` PROCEDURE `InsertCustomerBookData`(
+IN p_Username VARCHAR(50),
+IN p_Email VARCHAR(55), 
+IN p_SPassword VARCHAR(45),
+IN p_ConfirmPassword VARCHAR(45),
+IN p_RoleId INT,
+IN p_Deposit varchar(45),
+IN p_Balance varchar(45),  
+IN p_Date Date, 
+IN p_Time Time, 
+IN p_Status VARCHAR(45), 
+IN p_addevent_id INT
+)
+BEGIN
+	DECLARE last_id INT;
+	INSERT INTO signup (Username, Email, SPassword,RoleId) VALUES (p_Username, p_Email, p_SPassword,p_RoleId);
+	SET last_id = LAST_INSERT_ID();
+	INSERT INTO bookevent (Deposit, Balance, Date, Time, Status,addevent_id,signup_id) VALUES (p_Deposit,p_Balance,p_Date,p_Time,p_Status,p_addevent_id,last_id);
+END</t>
+  </si>
+  <si>
+    <t>InsertCustomerBookData</t>
   </si>
 </sst>
 </file>
@@ -744,19 +781,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C65"/>
+  <dimension ref="B2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="52.21875" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" customWidth="1"/>
+    <col min="3" max="3" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -764,12 +801,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="145" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -777,7 +814,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -785,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -793,12 +838,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="261" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -806,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="261" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -814,7 +859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="116" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -822,7 +867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="116" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -830,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="116" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -838,7 +883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -846,7 +891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -854,7 +899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -862,7 +907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -870,7 +915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -878,7 +923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -886,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -894,7 +939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -902,7 +947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -910,7 +955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>39</v>
       </c>
@@ -918,7 +963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" ht="87" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -926,7 +971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -934,7 +979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>45</v>
       </c>
@@ -942,7 +987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -950,7 +995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>49</v>
       </c>
@@ -958,7 +1003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>51</v>
       </c>
@@ -966,7 +1011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -974,7 +1019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>54</v>
       </c>
@@ -982,7 +1027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>57</v>
       </c>
@@ -990,7 +1035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" ht="87" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>59</v>
       </c>
@@ -998,7 +1043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" ht="116" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -1006,12 +1051,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" ht="232" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="348" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
